--- a/INDIVIDUALES/productor 1.xlsx
+++ b/INDIVIDUALES/productor 1.xlsx
@@ -2217,6 +2217,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>131025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="3800475"/>
+          <a:ext cx="7638950" cy="3950550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2843,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INDIVIDUALES/productor 1.xlsx
+++ b/INDIVIDUALES/productor 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="1" r:id="rId1"/>
@@ -166,6 +166,423 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>GRÁFICA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> POLLOS INICIALES Y  MUERTOS POR CICLO</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>INICIAL</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cantidad inicial'!$C$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F97-4926-9D0F-137185101A74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MUERTOS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Muertes!$C$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F97-4926-9D0F-137185101A74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1015024607"/>
+        <c:axId val="1015031679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1015024607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015031679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1015031679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1015024607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -497,7 +914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -512,7 +929,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1076,6 +1492,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -1113,7 +1569,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1221,6 +1677,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1231,6 +1692,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1262,6 +1728,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1616,6 +2085,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2139,6 +3111,79 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314449</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>29208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924049" y="4572000"/>
+          <a:ext cx="8543925" cy="4601208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2179,7 +3224,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2523,8 +3568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,6 +3698,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2661,7 +3707,7 @@
   <dimension ref="B1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,7 +3843,7 @@
   <dimension ref="B1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/INDIVIDUALES/productor 1.xlsx
+++ b/INDIVIDUALES/productor 1.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Cantidad inicial" sheetId="1" r:id="rId1"/>
     <sheet name="Muertes" sheetId="2" r:id="rId2"/>
-    <sheet name="Porcentajes" sheetId="3" r:id="rId3"/>
-    <sheet name="Intervalo " sheetId="5" r:id="rId4"/>
+    <sheet name="Estadisticas descriptivas" sheetId="6" r:id="rId3"/>
+    <sheet name="Porcentaje" sheetId="3" r:id="rId4"/>
+    <sheet name="Intervalos " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>CICLO 1</t>
   </si>
@@ -74,6 +75,39 @@
   <si>
     <t>Meta</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>MINIMO</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>MÁXIMO</t>
+  </si>
+  <si>
+    <t>DESVIACIÓN ESTANDAR</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>INICIAL</t>
+  </si>
+  <si>
+    <t>MUERTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADISTICAS DESCRIPTIVAS </t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,16 +177,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -597,6 +646,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -637,7 +687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Porcentajes!$B$2</c:f>
+              <c:f>Porcentaje!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,7 +722,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Porcentajes!$C$1:$J$1</c:f>
+              <c:f>Porcentaje!$C$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -704,7 +754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Porcentajes!$C$2:$J$2</c:f>
+              <c:f>Porcentaje!$C$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -929,6 +979,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>INTERVALOS GENERADOS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -967,7 +1043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Intervalo '!$C$2</c:f>
+              <c:f>'Intervalos '!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,7 +1064,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Intervalo '!$C$3:$C$10</c:f>
+              <c:f>'Intervalos '!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1031,7 +1107,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Intervalo '!$D$2</c:f>
+              <c:f>'Intervalos '!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1052,7 +1128,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Intervalo '!$D$3:$D$10</c:f>
+              <c:f>'Intervalos '!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1095,7 +1171,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Intervalo '!$E$2</c:f>
+              <c:f>'Intervalos '!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1154,7 +1230,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Intervalo '!$E$3:$E$10</c:f>
+              <c:f>'Intervalos '!$E$3:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1197,7 +1273,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Intervalo '!$N$2</c:f>
+              <c:f>'Intervalos '!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1231,7 +1307,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>'Intervalo '!$N$3:$N$10</c:f>
+              <c:f>'Intervalos '!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3151,7 +3227,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>29208</xdr:rowOff>
     </xdr:to>
@@ -3568,13 +3644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -3605,6 +3682,12 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3633,6 +3716,14 @@
       </c>
       <c r="J2">
         <v>79</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(C2:J2)</f>
+        <v>744</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(C2:J2)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3707,7 +3798,7 @@
   <dimension ref="B1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,6 +3834,12 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3771,6 +3868,14 @@
       </c>
       <c r="J2">
         <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(C2:J2)</f>
+        <v>47</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(C2:J2)</f>
+        <v>5.875</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -3840,18 +3945,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <f>MIN('Cantidad inicial'!C2:J2)</f>
+        <v>79</v>
+      </c>
+      <c r="D4" s="12">
+        <f>MIN(Muertes!C2:J2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12">
+        <f>AVERAGE('Cantidad inicial'!C2:J2)</f>
+        <v>93</v>
+      </c>
+      <c r="D5" s="12">
+        <f>AVERAGE(Muertes!C2:J2)</f>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12">
+        <f>MAX('Cantidad inicial'!C2:J2)</f>
+        <v>110</v>
+      </c>
+      <c r="D6" s="12">
+        <f>MAX(Muertes!C2:J2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9">
+        <f>_xlfn.STDEV.S('Cantidad inicial'!C2:J2)</f>
+        <v>11.489125293076057</v>
+      </c>
+      <c r="D7" s="9">
+        <f>_xlfn.STDEV.S(Muertes!C2:J2)</f>
+        <v>2.9001231500945415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12">
+        <f>SUM('Cantidad inicial'!C2:J2)</f>
+        <v>744</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(Muertes!C2:J2)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <f>COUNT('Cantidad inicial'!C2:J2)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <f>COUNT(Muertes!C2:J2)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -3879,8 +4102,9 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -3918,17 +4142,22 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:J2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,24 +4172,24 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/INDIVIDUALES/productor 1.xlsx
+++ b/INDIVIDUALES/productor 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cantidad inicial" sheetId="1" r:id="rId1"/>
@@ -179,17 +179,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,7 +361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F97-4926-9D0F-137185101A74}"/>
+              <c16:uniqueId val="{00000000-CB11-470C-BA6C-58750B316AFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -431,7 +431,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F97-4926-9D0F-137185101A74}"/>
+              <c16:uniqueId val="{00000001-CB11-470C-BA6C-58750B316AFC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -646,7 +646,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1004,7 +1003,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3193,18 +3191,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3220,20 +3220,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1314449</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>29208</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>159236</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3246,8 +3246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924049" y="4572000"/>
-          <a:ext cx="8543925" cy="4601208"/>
+          <a:off x="2085975" y="4381500"/>
+          <a:ext cx="8541236" cy="4602879"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3644,7 +3644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -3789,7 +3789,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3797,8 +3796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3940,6 +3939,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3957,13 +3957,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -3978,11 +3978,11 @@
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f>MIN('Cantidad inicial'!C2:J2)</f>
         <v>79</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <f>MIN(Muertes!C2:J2)</f>
         <v>2</v>
       </c>
@@ -3991,11 +3991,11 @@
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f>AVERAGE('Cantidad inicial'!C2:J2)</f>
         <v>93</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <f>AVERAGE(Muertes!C2:J2)</f>
         <v>5.875</v>
       </c>
@@ -4004,11 +4004,11 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f>MAX('Cantidad inicial'!C2:J2)</f>
         <v>110</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f>MAX(Muertes!C2:J2)</f>
         <v>10</v>
       </c>
@@ -4030,11 +4030,11 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f>SUM('Cantidad inicial'!C2:J2)</f>
         <v>744</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f>SUM(Muertes!C2:J2)</f>
         <v>47</v>
       </c>
@@ -4172,24 +4172,24 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
